--- a/data/podcasts.xlsx
+++ b/data/podcasts.xlsx
@@ -534,7 +534,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -575,8 +575,8 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="str">
-        <f>"01.07.2023                                                              "</f>
-        <v xml:space="preserve">01.07.2023                                                              </v>
+        <f>"04.07.2023                                                              "</f>
+        <v xml:space="preserve">04.07.2023                                                              </v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
@@ -591,10 +591,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="str">
-        <f>"04.07.2023"</f>
-        <v>04.07.2023</v>
+        <f>"01.07.2023"</f>
+        <v>01.07.2023</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -660,7 +660,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="str">
         <f>"17.11.2020"</f>
         <v>17.11.2020</v>

--- a/data/podcasts.xlsx
+++ b/data/podcasts.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$L$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$L$113</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Title</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>https://theeffectivestatistician.com/a-deep-dive-into-principal-stratification-and-causal-inference/</t>
+  </si>
+  <si>
+    <t>https://theeffectivestatistician.com/managing-hype-in-statistics/</t>
+  </si>
+  <si>
+    <t>Managing hype in statistics</t>
   </si>
 </sst>
 </file>
@@ -529,12 +535,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -574,107 +580,123 @@
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="str">
-        <f>"04.07.2023                                                              "</f>
-        <v xml:space="preserve">04.07.2023                                                              </v>
+      <c r="A2" s="2" t="str">
+        <f>"25.06.2024"</f>
+        <v>25.06.2024</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="str">
-        <f>"01.07.2023"</f>
-        <v>01.07.2023</v>
+        <f>"04.07.2023                                                              "</f>
+        <v xml:space="preserve">04.07.2023                                                              </v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="str">
-        <f>"01.12.2021"</f>
-        <v>01.12.2021</v>
+        <f>"01.07.2023"</f>
+        <v>01.07.2023</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="str">
-        <f>"06.07.2021"</f>
-        <v>06.07.2021</v>
+        <f>"01.12.2021"</f>
+        <v>01.12.2021</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="str">
+        <f>"06.07.2021"</f>
+        <v>06.07.2021</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="str">
         <f>"30.04.2021"</f>
         <v>30.04.2021</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="str">
+    <row r="8" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="str">
         <f>"17.11.2020"</f>
         <v>17.11.2020</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/data/podcasts.xlsx
+++ b/data/podcasts.xlsx
@@ -1,28 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\20_Job\02_Webpage\60_quarto\kasparrufibach\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE65EA6-1327-4324-BAAC-336376A1495E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="61"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="28800" windowHeight="15410" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$L$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$L$114</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Title</t>
   </si>
@@ -94,12 +108,18 @@
   </si>
   <si>
     <t>Managing hype in statistics</t>
+  </si>
+  <si>
+    <t>Introduction to dealing with non-proportional hazards</t>
+  </si>
+  <si>
+    <t>https://theeffectivestatistician.com/introduction-to-dealing-with-non-proportional-hazards/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -534,34 +554,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="10" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5703125" style="1"/>
+    <col min="11" max="11" width="6.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -579,131 +599,150 @@
       </c>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
+        <f>"04.12.2024"</f>
+        <v>04.12.2024</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="str">
         <f>"25.06.2024"</f>
         <v>25.06.2024</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="str">
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="str">
         <f>"04.07.2023                                                              "</f>
         <v xml:space="preserve">04.07.2023                                                              </v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="str">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="str">
         <f>"01.07.2023"</f>
         <v>01.07.2023</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="str">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="str">
         <f>"01.12.2021"</f>
         <v>01.12.2021</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="str">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="str">
         <f>"06.07.2021"</f>
         <v>06.07.2021</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="str">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="str">
         <f>"30.04.2021"</f>
         <v>30.04.2021</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="str">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="str">
         <f>"17.11.2020"</f>
         <v>17.11.2020</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{8F676C36-0CE6-4143-910B-5E0B86FD9B16}"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>

--- a/data/podcasts.xlsx
+++ b/data/podcasts.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE65EA6-1327-4324-BAAC-336376A1495E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B0CDBF-5899-464A-82C3-5A6D8DC3274B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="28800" windowHeight="15410" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$L$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$L$115</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Title</t>
   </si>
@@ -114,13 +114,19 @@
   </si>
   <si>
     <t>https://theeffectivestatistician.com/introduction-to-dealing-with-non-proportional-hazards/</t>
+  </si>
+  <si>
+    <t>https://theeffectivestatistician.com/p-value-and-confidence-intervals-the-good-the-bad-and-the-ugly/</t>
+  </si>
+  <si>
+    <t>P-value and confidence intervals -- the good, the bad, and the ugly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -128,6 +134,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -149,10 +162,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -166,8 +180,12 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -555,33 +573,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="10" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.54296875" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="84" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="12.5703125" style="2"/>
+    <col min="12" max="16384" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -599,150 +610,167 @@
       </c>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
+        <f>"11.03.2025"</f>
+        <v>11.03.2025</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="str">
         <f>"04.12.2024"</f>
         <v>04.12.2024</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="str">
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="str">
         <f>"25.06.2024"</f>
         <v>25.06.2024</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="str">
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="str">
         <f>"04.07.2023                                                              "</f>
         <v xml:space="preserve">04.07.2023                                                              </v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="str">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="str">
         <f>"01.07.2023"</f>
         <v>01.07.2023</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="str">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="str">
         <f>"01.12.2021"</f>
         <v>01.12.2021</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="str">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="str">
         <f>"06.07.2021"</f>
         <v>06.07.2021</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="str">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="str">
         <f>"30.04.2021"</f>
         <v>30.04.2021</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="str">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="str">
         <f>"17.11.2020"</f>
         <v>17.11.2020</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{8F676C36-0CE6-4143-910B-5E0B86FD9B16}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{8F676C36-0CE6-4143-910B-5E0B86FD9B16}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{9B32EC29-C677-431C-9FA4-C54734811394}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>

--- a/data/podcasts.xlsx
+++ b/data/podcasts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B0CDBF-5899-464A-82C3-5A6D8DC3274B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502FCA4E-4852-4106-B75D-D027DB93D143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$L$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$L$116</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Title</t>
   </si>
@@ -120,13 +120,19 @@
   </si>
   <si>
     <t>P-value and confidence intervals -- the good, the bad, and the ugly</t>
+  </si>
+  <si>
+    <t>Clarifying confusions around interim, primary, final, and other analyses in clinical trials</t>
+  </si>
+  <si>
+    <t>https://theeffectivestatistician.com/clarifying-confusions-around-interim-primary-final-and-other-analyses-in-clinical-trial/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -134,13 +140,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -162,11 +161,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -180,12 +178,8 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -573,12 +567,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -587,7 +581,7 @@
     <col min="2" max="2" width="28.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="61.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="84" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="86.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="11" width="12.5703125" style="2"/>
     <col min="12" max="16384" width="12.5703125" style="1"/>
   </cols>
@@ -605,172 +599,189 @@
       <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
+        <f>"17.04.2025"</f>
+        <v>17.04.2025</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="str">
         <f>"11.03.2025"</f>
         <v>11.03.2025</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="str">
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="str">
         <f>"04.12.2024"</f>
         <v>04.12.2024</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="str">
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="str">
         <f>"25.06.2024"</f>
         <v>25.06.2024</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="str">
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="str">
         <f>"04.07.2023                                                              "</f>
         <v xml:space="preserve">04.07.2023                                                              </v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="str">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="str">
         <f>"01.07.2023"</f>
         <v>01.07.2023</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="str">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="str">
         <f>"01.12.2021"</f>
         <v>01.12.2021</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="str">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="str">
         <f>"06.07.2021"</f>
         <v>06.07.2021</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="str">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="str">
         <f>"30.04.2021"</f>
         <v>30.04.2021</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="str">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="str">
         <f>"17.11.2020"</f>
         <v>17.11.2020</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{8F676C36-0CE6-4143-910B-5E0B86FD9B16}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{9B32EC29-C677-431C-9FA4-C54734811394}"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{8F676C36-0CE6-4143-910B-5E0B86FD9B16}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{9B32EC29-C677-431C-9FA4-C54734811394}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{697EB231-C50A-4026-AE5A-6608B3A8768B}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
